--- a/static/files/price-metaclay.xlsx
+++ b/static/files/price-metaclay.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7965"/>
@@ -10,14 +10,15 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$B$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$B$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$C$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
   <si>
     <t>Вид исследования (номер стандарта)</t>
   </si>
@@ -28,9 +29,6 @@
     <t>LabTech Линия по выдуву трехслойной полимерной пленки</t>
   </si>
   <si>
-    <t>7000 руб/час</t>
-  </si>
-  <si>
     <t>Высокоскоростное смешение в потоке для создания однородных водных суспензий</t>
   </si>
   <si>
@@ -319,9 +317,6 @@
     <t>Определение характеристик зависимости напряжение-деформация при растяжении (ГОСТ 14236, ГОСТ 11262)</t>
   </si>
   <si>
-    <t>По всем интересующим Вас вопросам просьба обращаться: руководитель НТЛ, Скворцов Иван Николаевич, +7-4999698130 (+401), Ivan.Skvorczov@metaclay.com</t>
-  </si>
-  <si>
     <t>Ротационный вискозиметр расплава Брукфельда (диапазон температур: +23С до +250С)</t>
   </si>
   <si>
@@ -334,12 +329,6 @@
     <t>Смешение в лабораторном стеклянном реакторе</t>
   </si>
   <si>
-    <t>Лабораторный реактор с обратным холодильником HWS 10л. , Мешалка Ika</t>
-  </si>
-  <si>
-    <t>Лабораторный реактор с обратным холодильником HWS 5л. , Мешалка Ika</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сушка и вакуумирование, образцов с использованием вакуумного сушильного шкафа BINDER </t>
   </si>
   <si>
@@ -413,6 +402,48 @@
   </si>
   <si>
     <t>в зависимости от времени экспозиции и вида агрессивной среды</t>
+  </si>
+  <si>
+    <t>AnD GH 252 Аналитические весы с набором для определения плотности</t>
+  </si>
+  <si>
+    <t>AnD GH 252 Аналитические весы</t>
+  </si>
+  <si>
+    <t>Изменение свойств после экспозиции в кислотах, щелочах.</t>
+  </si>
+  <si>
+    <t>3500 руб/час</t>
+  </si>
+  <si>
+    <t>Определение прочности, твердости древесины (ГОСТ 16483.7, 16483.17,16483.3, 16483.10.)</t>
+  </si>
+  <si>
+    <t>в зависимости от времени экспозиции</t>
+  </si>
+  <si>
+    <t>Используемое оборудование</t>
+  </si>
+  <si>
+    <t>10000 руб/час</t>
+  </si>
+  <si>
+    <t>6000 (6 заготовок)</t>
+  </si>
+  <si>
+    <t>5000 (10 заготовок)</t>
+  </si>
+  <si>
+    <t>3500 (5 заготовок)</t>
+  </si>
+  <si>
+    <t>15000 (6 заготовок)</t>
+  </si>
+  <si>
+    <t>6000 (5 заготовок)</t>
+  </si>
+  <si>
+    <t>1500 руб/час</t>
   </si>
   <si>
     <r>
@@ -421,7 +452,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -432,7 +463,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -443,115 +474,43 @@
     </r>
   </si>
   <si>
-    <t>AnD GH 252 Аналитические весы с набором для определения плотности</t>
-  </si>
-  <si>
-    <t>AnD GH 252 Аналитические весы</t>
-  </si>
-  <si>
-    <t>Изменение свойств после экспозиции в кислотах, щелочах.</t>
-  </si>
-  <si>
-    <t>3500 руб/час</t>
-  </si>
-  <si>
-    <t>Определение прочности, твердости древесины (ГОСТ 16483.7, 16483.17,16483.3, 16483.10.)</t>
-  </si>
-  <si>
-    <t>в зависимости от времени экспозиции</t>
-  </si>
-  <si>
-    <t>Используемое оборудование</t>
-  </si>
-  <si>
-    <t>10000 руб/час</t>
-  </si>
-  <si>
-    <t>6000 (6 заготовок)</t>
-  </si>
-  <si>
-    <t>5000 (10 заготовок)</t>
-  </si>
-  <si>
-    <t>3500 (5 заготовок)</t>
-  </si>
-  <si>
-    <t>15000 (6 заготовок)</t>
-  </si>
-  <si>
-    <t>6000 (5 заготовок)</t>
-  </si>
-  <si>
-    <t>1500 руб/час</t>
+    <t>Прайс-лист на услуги Научно-Технологической Лаборатории АО МЕТАКЛЭЙ</t>
+  </si>
+  <si>
+    <t>www.test-polymer.ru</t>
+  </si>
+  <si>
+    <t>Определение времени индукции окисления</t>
+  </si>
+  <si>
+    <t>Определение температуры кристаллизации</t>
+  </si>
+  <si>
+    <t>Определение температуры плавления</t>
+  </si>
+  <si>
+    <t>Определение тепловых эффектов химических реакций</t>
+  </si>
+  <si>
+    <t>DSC 214 Polyma® Дифференциальный сканирующий калориметр</t>
+  </si>
+  <si>
+    <t>Лабораторный реактор с обратным холодильником HWS 10л., Мешалка Ika</t>
+  </si>
+  <si>
+    <t>Лабораторный реактор с обратным холодильником HWS 5л., Мешалка Ika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,8 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -580,11 +539,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -681,19 +657,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -703,60 +674,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
@@ -889,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,17 +1089,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="9" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="9" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="16380" width="9" hidden="1"/>
     <col min="16381" max="16381" width="0.42578125" customWidth="1"/>
@@ -1156,8 +1110,12 @@
   <sheetData>
     <row r="1" spans="1:9 16381:16381" ht="135.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
@@ -1165,14 +1123,14 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9 16381:16381" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9 16381:16381" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2"/>
@@ -1182,15 +1140,15 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>140</v>
+      <c r="C3" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1198,17 +1156,17 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="XFA3" s="16"/>
-    </row>
-    <row r="4" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA3" s="5"/>
+    </row>
+    <row r="4" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>136</v>
+      <c r="C4" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -1216,17 +1174,17 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="XFA4" s="16"/>
-    </row>
-    <row r="5" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA4" s="5"/>
+    </row>
+    <row r="5" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>141</v>
+      <c r="C5" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1234,17 +1192,17 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="XFA5" s="16"/>
-    </row>
-    <row r="6" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA5" s="5"/>
+    </row>
+    <row r="6" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>142</v>
+      <c r="C6" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1252,14 +1210,14 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="XFA6" s="16"/>
-    </row>
-    <row r="7" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA6" s="5"/>
+    </row>
+    <row r="7" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="9">
         <f>3500</f>
@@ -1271,14 +1229,14 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="XFA7" s="16"/>
-    </row>
-    <row r="8" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA7" s="5"/>
+    </row>
+    <row r="8" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="9">
         <f>2500</f>
@@ -1290,14 +1248,14 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="XFA8" s="16"/>
-    </row>
-    <row r="9" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA8" s="5"/>
+    </row>
+    <row r="9" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
         <f>2500</f>
@@ -1309,17 +1267,17 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="XFA9" s="16"/>
-    </row>
-    <row r="10" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA9" s="5"/>
+    </row>
+    <row r="10" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>143</v>
+      <c r="C10" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1327,17 +1285,17 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="XFA10" s="16"/>
-    </row>
-    <row r="11" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA10" s="5"/>
+    </row>
+    <row r="11" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1345,17 +1303,17 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="XFA11" s="16"/>
-    </row>
-    <row r="12" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA11" s="5"/>
+    </row>
+    <row r="12" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1363,14 +1321,14 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="XFA12" s="16"/>
-    </row>
-    <row r="13" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA12" s="5"/>
+    </row>
+    <row r="13" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
         <f>15000</f>
@@ -1382,14 +1340,14 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="XFA13" s="16"/>
-    </row>
-    <row r="14" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA13" s="5"/>
+    </row>
+    <row r="14" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="9">
         <f>3500</f>
@@ -1401,14 +1359,14 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="XFA14" s="16"/>
-    </row>
-    <row r="15" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA14" s="5"/>
+    </row>
+    <row r="15" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C15" s="11">
         <f>2500</f>
@@ -1420,14 +1378,14 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="XFA15" s="16"/>
-    </row>
-    <row r="16" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA15" s="5"/>
+    </row>
+    <row r="16" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C16" s="9">
         <f>2500</f>
@@ -1439,14 +1397,14 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="XFA16" s="16"/>
-    </row>
-    <row r="17" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA16" s="5"/>
+    </row>
+    <row r="17" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="9">
         <f>3500</f>
@@ -1458,14 +1416,14 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="XFA17" s="16"/>
-    </row>
-    <row r="18" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA17" s="5"/>
+    </row>
+    <row r="18" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="9">
         <f>6000</f>
@@ -1477,14 +1435,14 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="XFA18" s="16"/>
-    </row>
-    <row r="19" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA18" s="5"/>
+    </row>
+    <row r="19" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C19" s="9">
         <f>3500</f>
@@ -1496,14 +1454,14 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="XFA19" s="16"/>
-    </row>
-    <row r="20" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA19" s="5"/>
+    </row>
+    <row r="20" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9">
         <f>3500</f>
@@ -1515,14 +1473,14 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="XFA20" s="16"/>
-    </row>
-    <row r="21" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA20" s="5"/>
+    </row>
+    <row r="21" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9">
         <f>3500</f>
@@ -1534,14 +1492,14 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="XFA21" s="16"/>
-    </row>
-    <row r="22" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA21" s="5"/>
+    </row>
+    <row r="22" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C22" s="9">
         <f>2500</f>
@@ -1553,14 +1511,14 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="XFA22" s="16"/>
-    </row>
-    <row r="23" spans="1:9 16381:16381" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="XFA22" s="5"/>
+    </row>
+    <row r="23" spans="1:9 16381:16381" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9">
         <f>6000</f>
@@ -1572,14 +1530,14 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="XFA23" s="16"/>
-    </row>
-    <row r="24" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA23" s="5"/>
+    </row>
+    <row r="24" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C24" s="9">
         <f>3600</f>
@@ -1591,14 +1549,14 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="XFA24" s="16"/>
-    </row>
-    <row r="25" spans="1:9 16381:16381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="XFA24" s="5"/>
+    </row>
+    <row r="25" spans="1:9 16381:16381" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C25" s="9">
         <f>6000</f>
@@ -1610,18 +1568,18 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="XFA25" s="16"/>
-    </row>
-    <row r="26" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA25" s="5"/>
+    </row>
+    <row r="26" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="9">
-        <f>3600</f>
-        <v>3600</v>
+        <f>3500</f>
+        <v>3500</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1629,17 +1587,17 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="XFA26" s="16"/>
-    </row>
-    <row r="27" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA26" s="5"/>
+    </row>
+    <row r="27" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>140</v>
+      <c r="C27" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1647,14 +1605,14 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="XFA27" s="16"/>
-    </row>
-    <row r="28" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA27" s="5"/>
+    </row>
+    <row r="28" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="9">
         <f>3500</f>
@@ -1666,14 +1624,14 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="XFA28" s="16"/>
-    </row>
-    <row r="29" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA28" s="5"/>
+    </row>
+    <row r="29" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C29" s="11">
         <v>500</v>
@@ -1684,14 +1642,14 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="XFA29" s="16"/>
-    </row>
-    <row r="30" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA29" s="5"/>
+    </row>
+    <row r="30" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C30" s="9">
         <f>3500</f>
@@ -1703,14 +1661,14 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="XFA30" s="16"/>
-    </row>
-    <row r="31" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA30" s="5"/>
+    </row>
+    <row r="31" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C31" s="11">
         <f>2500</f>
@@ -1722,18 +1680,18 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="XFA31" s="16"/>
-    </row>
-    <row r="32" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA31" s="5"/>
+    </row>
+    <row r="32" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C32" s="9">
-        <f>6000</f>
-        <v>6000</v>
+        <f>8000</f>
+        <v>8000</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1741,14 +1699,14 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="XFA32" s="16"/>
-    </row>
-    <row r="33" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA32" s="5"/>
+    </row>
+    <row r="33" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C33" s="9">
         <f>3500</f>
@@ -1760,14 +1718,14 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="XFA33" s="16"/>
-    </row>
-    <row r="34" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA33" s="5"/>
+    </row>
+    <row r="34" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="C34" s="9">
         <f>6000</f>
@@ -1779,14 +1737,14 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="XFA34" s="16"/>
-    </row>
-    <row r="35" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA34" s="5"/>
+    </row>
+    <row r="35" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C35" s="9">
         <v>1000</v>
@@ -1797,14 +1755,14 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="XFA35" s="16"/>
-    </row>
-    <row r="36" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA35" s="5"/>
+    </row>
+    <row r="36" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="9">
         <f>3500</f>
@@ -1816,14 +1774,14 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="XFA36" s="16"/>
-    </row>
-    <row r="37" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA36" s="5"/>
+    </row>
+    <row r="37" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="9">
         <f>6000</f>
@@ -1835,14 +1793,14 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="XFA37" s="16"/>
-    </row>
-    <row r="38" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA37" s="5"/>
+    </row>
+    <row r="38" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="9">
         <f>6000</f>
@@ -1854,17 +1812,17 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="XFA38" s="16"/>
-    </row>
-    <row r="39" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA38" s="5"/>
+    </row>
+    <row r="39" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1872,17 +1830,17 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="XFA39" s="16"/>
-    </row>
-    <row r="40" spans="1:9 16381:16381" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>116</v>
+      <c r="XFA39" s="5"/>
+    </row>
+    <row r="40" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1890,17 +1848,17 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="XFA40" s="16"/>
-    </row>
-    <row r="41" spans="1:9 16381:16381" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>137</v>
+      <c r="XFA40" s="5"/>
+    </row>
+    <row r="41" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1908,14 +1866,14 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="XFA41" s="16"/>
-    </row>
-    <row r="42" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA41" s="5"/>
+    </row>
+    <row r="42" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C42" s="9">
         <f>3500</f>
@@ -1927,17 +1885,17 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="XFA42" s="16"/>
-    </row>
-    <row r="43" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA42" s="5"/>
+    </row>
+    <row r="43" spans="1:9 16381:16381" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>138</v>
+      <c r="C43" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -1945,14 +1903,14 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="XFA43" s="16"/>
-    </row>
-    <row r="44" spans="1:9 16381:16381" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>124</v>
+      <c r="XFA43" s="5"/>
+    </row>
+    <row r="44" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9">
         <f>60000</f>
@@ -1964,17 +1922,17 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="XFA44" s="16"/>
-    </row>
-    <row r="45" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA44" s="5"/>
+    </row>
+    <row r="45" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>144</v>
+      <c r="C45" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -1982,14 +1940,14 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="XFA45" s="16"/>
-    </row>
-    <row r="46" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA45" s="5"/>
+    </row>
+    <row r="46" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="9">
         <f>3500</f>
@@ -2001,17 +1959,17 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="XFA46" s="16"/>
-    </row>
-    <row r="47" spans="1:9 16381:16381" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>135</v>
+      <c r="XFA46" s="5"/>
+    </row>
+    <row r="47" spans="1:9 16381:16381" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2019,17 +1977,17 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="XFA47" s="16"/>
-    </row>
-    <row r="48" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA47" s="5"/>
+    </row>
+    <row r="48" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>144</v>
+        <v>52</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2037,17 +1995,17 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="XFA48" s="16"/>
-    </row>
-    <row r="49" spans="1:9 16381:16381" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>122</v>
+      <c r="XFA48" s="5"/>
+    </row>
+    <row r="49" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>145</v>
+        <v>117</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2055,17 +2013,17 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="XFA49" s="16"/>
-    </row>
-    <row r="50" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA49" s="5"/>
+    </row>
+    <row r="50" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>144</v>
+        <v>52</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2073,17 +2031,17 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="XFA50" s="16"/>
-    </row>
-    <row r="51" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA50" s="5"/>
+    </row>
+    <row r="51" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>138</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2091,14 +2049,14 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="XFA51" s="16"/>
-    </row>
-    <row r="52" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA51" s="5"/>
+    </row>
+    <row r="52" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="9">
         <f>3500</f>
@@ -2110,14 +2068,14 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="XFA52" s="16"/>
-    </row>
-    <row r="53" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA52" s="5"/>
+    </row>
+    <row r="53" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C53" s="9">
         <v>500</v>
@@ -2128,14 +2086,14 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="XFA53" s="16"/>
-    </row>
-    <row r="54" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA53" s="5"/>
+    </row>
+    <row r="54" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="9">
         <f>3500</f>
@@ -2147,17 +2105,17 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="XFA54" s="16"/>
-    </row>
-    <row r="55" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA54" s="5"/>
+    </row>
+    <row r="55" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>141</v>
+        <v>6</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2165,14 +2123,14 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="XFA55" s="16"/>
-    </row>
-    <row r="56" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA55" s="5"/>
+    </row>
+    <row r="56" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="9">
         <f>3500</f>
@@ -2184,14 +2142,14 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="XFA56" s="16"/>
-    </row>
-    <row r="57" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA56" s="5"/>
+    </row>
+    <row r="57" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="9">
         <f>3500</f>
@@ -2203,17 +2161,17 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="XFA57" s="16"/>
-    </row>
-    <row r="58" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA57" s="5"/>
+    </row>
+    <row r="58" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>141</v>
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -2221,14 +2179,14 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="XFA58" s="16"/>
+      <c r="XFA58" s="5"/>
     </row>
     <row r="59" spans="1:9 16381:16381" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="9">
         <f>3500</f>
@@ -2240,17 +2198,17 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="XFA59" s="16"/>
-    </row>
-    <row r="60" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA59" s="5"/>
+    </row>
+    <row r="60" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>141</v>
+        <v>6</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2258,14 +2216,14 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="XFA60" s="16"/>
-    </row>
-    <row r="61" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA60" s="5"/>
+    </row>
+    <row r="61" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="9">
         <f>3500</f>
@@ -2277,14 +2235,14 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="XFA61" s="16"/>
-    </row>
-    <row r="62" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA61" s="5"/>
+    </row>
+    <row r="62" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="9">
         <f>3500</f>
@@ -2296,14 +2254,14 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="XFA62" s="16"/>
-    </row>
-    <row r="63" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA62" s="5"/>
+    </row>
+    <row r="63" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C63" s="9">
         <v>500</v>
@@ -2314,14 +2272,14 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="XFA63" s="16"/>
-    </row>
-    <row r="64" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA63" s="5"/>
+    </row>
+    <row r="64" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="9">
         <v>500</v>
@@ -2332,14 +2290,14 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="XFA64" s="16"/>
-    </row>
-    <row r="65" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA64" s="5"/>
+    </row>
+    <row r="65" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="9">
         <v>500</v>
@@ -2350,14 +2308,14 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="XFA65" s="16"/>
-    </row>
-    <row r="66" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA65" s="5"/>
+    </row>
+    <row r="66" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C66" s="8">
         <v>2500</v>
@@ -2368,14 +2326,14 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="XFA66" s="16"/>
-    </row>
-    <row r="67" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA66" s="5"/>
+    </row>
+    <row r="67" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="C67" s="8">
         <f>2500</f>
@@ -2387,14 +2345,14 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="XFA67" s="16"/>
-    </row>
-    <row r="68" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA67" s="5"/>
+    </row>
+    <row r="68" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="8">
         <f>2500</f>
@@ -2406,17 +2364,17 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="XFA68" s="16"/>
-    </row>
-    <row r="69" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA68" s="5"/>
+    </row>
+    <row r="69" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2424,17 +2382,17 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="XFA69" s="16"/>
-    </row>
-    <row r="70" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA69" s="5"/>
+    </row>
+    <row r="70" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>138</v>
+        <v>50</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2442,14 +2400,14 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="XFA70" s="16"/>
-    </row>
-    <row r="71" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA70" s="5"/>
+    </row>
+    <row r="71" spans="1:9 16381:16381" ht="63" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="8">
         <f>6000</f>
@@ -2461,17 +2419,17 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="XFA71" s="16"/>
-    </row>
-    <row r="72" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA71" s="5"/>
+    </row>
+    <row r="72" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2479,14 +2437,14 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="XFA72" s="16"/>
-    </row>
-    <row r="73" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA72" s="5"/>
+    </row>
+    <row r="73" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C73" s="8">
         <f>1500</f>
@@ -2498,17 +2456,17 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="XFA73" s="16"/>
-    </row>
-    <row r="74" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA73" s="5"/>
+    </row>
+    <row r="74" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2516,17 +2474,17 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="XFA74" s="16"/>
-    </row>
-    <row r="75" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA74" s="5"/>
+    </row>
+    <row r="75" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -2534,14 +2492,14 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="XFA75" s="16"/>
-    </row>
-    <row r="76" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
+      <c r="XFA75" s="5"/>
+    </row>
+    <row r="76" spans="1:9 16381:16381" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C76" s="8">
         <f>6000</f>
@@ -2553,17 +2511,17 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="XFA76" s="16"/>
-    </row>
-    <row r="77" spans="1:9 16381:16381" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>117</v>
+      <c r="XFA76" s="5"/>
+    </row>
+    <row r="77" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -2571,17 +2529,17 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="XFA77" s="16"/>
-    </row>
-    <row r="78" spans="1:9 16381:16381" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>128</v>
+      <c r="XFA77" s="5"/>
+    </row>
+    <row r="78" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -2589,17 +2547,17 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="XFA78" s="16"/>
-    </row>
-    <row r="79" spans="1:9 16381:16381" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>127</v>
+      <c r="XFA78" s="5"/>
+    </row>
+    <row r="79" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -2607,17 +2565,17 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="XFA79" s="16"/>
-    </row>
-    <row r="80" spans="1:9 16381:16381" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>129</v>
+      <c r="XFA79" s="5"/>
+    </row>
+    <row r="80" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -2625,14 +2583,14 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="XFA80" s="16"/>
-    </row>
-    <row r="81" spans="1:9 16381:16381" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="XFA80" s="5"/>
+    </row>
+    <row r="81" spans="1:9 16381:16381" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C81" s="8">
         <f>6000</f>
@@ -2644,17 +2602,17 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="XFA81" s="16"/>
-    </row>
-    <row r="82" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA81" s="5"/>
+    </row>
+    <row r="82" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2662,17 +2620,17 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="XFA82" s="16"/>
-    </row>
-    <row r="83" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA82" s="5"/>
+    </row>
+    <row r="83" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>136</v>
+        <v>151</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -2680,17 +2638,17 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="XFA83" s="16"/>
-    </row>
-    <row r="84" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA83" s="5"/>
+    </row>
+    <row r="84" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C84" s="8" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -2698,17 +2656,17 @@
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="XFA84" s="16"/>
-    </row>
-    <row r="85" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA84" s="5"/>
+    </row>
+    <row r="85" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>140</v>
+      <c r="C85" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -2716,17 +2674,17 @@
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="XFA85" s="16"/>
-    </row>
-    <row r="86" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA85" s="5"/>
+    </row>
+    <row r="86" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -2734,17 +2692,17 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="XFA86" s="16"/>
-    </row>
-    <row r="87" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA86" s="5"/>
+    </row>
+    <row r="87" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>140</v>
+      <c r="C87" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -2752,14 +2710,14 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="XFA87" s="16"/>
-    </row>
-    <row r="88" spans="1:9 16381:16381" ht="30" x14ac:dyDescent="0.25">
+      <c r="XFA87" s="5"/>
+    </row>
+    <row r="88" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C88" s="12">
         <f>1500</f>
@@ -2771,12 +2729,18 @@
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="XFA88" s="16"/>
-    </row>
-    <row r="89" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="XFA88" s="5"/>
+    </row>
+    <row r="89" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="9">
+        <v>3500</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
@@ -2784,12 +2748,16 @@
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
+    <row r="90" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="9">
+        <v>3500</v>
+      </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
@@ -2797,10 +2765,16 @@
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9 16381:16381" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+    <row r="91" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="9">
+        <v>3500</v>
+      </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
@@ -2808,10 +2782,16 @@
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9 16381:16381" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
+    <row r="92" spans="1:9 16381:16381" ht="42" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="9">
+        <v>3500</v>
+      </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
@@ -2831,11 +2811,11 @@
       <c r="I93"/>
     </row>
     <row r="94" spans="1:9 16381:16381" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
@@ -2882,17 +2862,18 @@
     <row r="121" ht="15" x14ac:dyDescent="0.25"/>
     <row r="122" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:B88"/>
+  <autoFilter ref="A2:B92"/>
   <sortState ref="A3:C102">
     <sortCondition ref="A102"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A90:C90"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>